--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -60,9 +60,6 @@
     <t>The subject of the mail</t>
   </si>
   <si>
-    <t>Registration For Intro to Web Dev Program</t>
-  </si>
-  <si>
     <t>File_Name</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>sodq4real@hotmail.com</t>
+  </si>
+  <si>
+    <t>Registration for Intro to Web Dev Program</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
